--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s4_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s4_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.6460136062153</v>
+        <v>1095.53119853518</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.903456839131665e-06</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.683268089699756</v>
+        <v>7.819745991152481</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.683268089699756</v>
+        <v>7.805446816166261</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.69</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.15868643584639</v>
+        <v>22.44825517873883</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>19.28956874289246</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.46902814888774</v>
+        <v>40.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.58008498396507</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.78792875046599</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,12 +1062,110 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.5050000000014</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.64</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.335</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>198.9800000000014</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>211.685</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>214.3</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>220.545</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>215.315</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>170.4799999999998</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>173.2749999999998</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>175.1699999999998</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.5649999999998</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>163.0549999999998</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>198.9800000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>211.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>220.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>215.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>170.4799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>173.2749999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>175.1699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>173.5649999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>163.0549999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1825,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1880,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2103,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2144,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2155,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2166,9 +2286,75 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
